--- a/documentation/measurement data in excel.xlsx
+++ b/documentation/measurement data in excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\20_Projects\21000_series\21343 Active Security Glass\40 Qualification &amp; Verification\QRD21343-0007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FE71B5-DAC1-4B83-90BB-41E4550FF016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F7E6F9-575A-4389-B059-57F6A1B48EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{795EBCE0-A0C9-4D3B-885B-B580913E2EC7}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" activeTab="1" xr2:uid="{795EBCE0-A0C9-4D3B-885B-B580913E2EC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2L &amp; 4L" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1205,12 +1205,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1229,22 +1223,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,9 +1256,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1268,12 +1265,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17399,9 +17401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C09DB25-B3F6-4D01-AA16-325BBF7FB7BD}">
   <dimension ref="A1:AE110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -17430,16 +17432,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
       <c r="P1" t="s">
         <v>56</v>
       </c>
@@ -17467,15 +17469,15 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="I4" t="s">
         <v>18</v>
       </c>
@@ -17509,15 +17511,15 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
       <c r="I5" t="s">
         <v>23</v>
       </c>
@@ -17561,15 +17563,15 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
       <c r="I6" t="s">
         <v>22</v>
       </c>
@@ -17687,7 +17689,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="91" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -17761,7 +17763,7 @@
       <c r="AD8" s="15"/>
     </row>
     <row r="9" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -17833,7 +17835,7 @@
       <c r="AD9" s="13"/>
     </row>
     <row r="10" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
@@ -17905,7 +17907,7 @@
       <c r="AD10" s="8"/>
     </row>
     <row r="11" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="92" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -17980,7 +17982,7 @@
       <c r="AD11" s="15"/>
     </row>
     <row r="12" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
@@ -18053,7 +18055,7 @@
       <c r="AD12" s="13"/>
     </row>
     <row r="13" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
@@ -18145,7 +18147,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
@@ -18237,7 +18239,7 @@
       </c>
     </row>
     <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="16" t="s">
         <v>8</v>
       </c>
@@ -18329,7 +18331,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
+      <c r="A16" s="92"/>
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -18420,7 +18422,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="16" t="s">
         <v>8</v>
       </c>
@@ -18511,7 +18513,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
+      <c r="A18" s="92"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -18602,7 +18604,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="16" t="s">
         <v>8</v>
       </c>
@@ -18693,7 +18695,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
+      <c r="A20" s="92"/>
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -18784,7 +18786,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="16" t="s">
         <v>8</v>
       </c>
@@ -18875,7 +18877,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
+      <c r="A22" s="92"/>
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -18966,7 +18968,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="16" t="s">
         <v>8</v>
       </c>
@@ -19057,7 +19059,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="17" t="s">
         <v>8</v>
       </c>
@@ -19148,7 +19150,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="16" t="s">
         <v>8</v>
       </c>
@@ -19239,7 +19241,7 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="17" t="s">
         <v>8</v>
       </c>
@@ -19330,7 +19332,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
@@ -19421,7 +19423,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
+      <c r="A28" s="92"/>
       <c r="B28" t="s">
         <v>9</v>
       </c>
@@ -19512,7 +19514,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
@@ -19603,7 +19605,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
+      <c r="A30" s="92"/>
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -19694,7 +19696,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="9" t="s">
         <v>9</v>
       </c>
@@ -19785,7 +19787,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
+      <c r="A32" s="92"/>
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -19876,7 +19878,7 @@
       </c>
     </row>
     <row r="33" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="9" t="s">
         <v>9</v>
       </c>
@@ -19967,7 +19969,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
+      <c r="A34" s="92"/>
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -20058,7 +20060,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="93" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -20152,7 +20154,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="95"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="12" t="s">
         <v>9</v>
       </c>
@@ -20244,7 +20246,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="95"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="19" t="s">
         <v>8</v>
       </c>
@@ -20336,7 +20338,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="5" t="s">
         <v>9</v>
       </c>
@@ -20428,7 +20430,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="12" t="s">
         <v>9</v>
       </c>
@@ -20521,7 +20523,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="12" t="s">
         <v>9</v>
       </c>
@@ -20614,7 +20616,7 @@
       </c>
     </row>
     <row r="41" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="12" t="s">
         <v>9</v>
       </c>
@@ -20707,7 +20709,7 @@
       </c>
     </row>
     <row r="42" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="12" t="s">
         <v>9</v>
       </c>
@@ -20800,7 +20802,7 @@
       </c>
     </row>
     <row r="43" spans="1:30" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="12" t="s">
         <v>9</v>
       </c>
@@ -20880,7 +20882,7 @@
       <c r="AD43" s="13"/>
     </row>
     <row r="44" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="5" t="s">
         <v>9</v>
       </c>
@@ -20971,7 +20973,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="21" t="s">
         <v>8</v>
       </c>
@@ -21062,7 +21064,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="5" t="s">
         <v>41</v>
       </c>
@@ -21457,7 +21459,7 @@
       </c>
     </row>
     <row r="57" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="89" t="str">
+      <c r="A57" s="94" t="str">
         <f>A$11</f>
         <v>2-layer PCB</v>
       </c>
@@ -21534,7 +21536,7 @@
       </c>
     </row>
     <row r="58" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="89"/>
+      <c r="A58" s="94"/>
       <c r="B58" t="str" cm="1">
         <f t="array" ref="B58:W58">B25:W25</f>
         <v>Square</v>
@@ -21608,7 +21610,7 @@
       </c>
     </row>
     <row r="59" spans="1:27" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
+      <c r="A59" s="94"/>
       <c r="B59" s="14" t="str" cm="1">
         <f t="array" ref="B59:W59">B$13:W$13</f>
         <v>Square</v>
@@ -21682,7 +21684,7 @@
       </c>
     </row>
     <row r="60" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="89"/>
+      <c r="A60" s="94"/>
       <c r="B60" t="str" cm="1">
         <f t="array" ref="B60:W60">B24:W24</f>
         <v>Square</v>
@@ -21756,7 +21758,7 @@
       </c>
     </row>
     <row r="61" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="89"/>
+      <c r="A61" s="94"/>
       <c r="B61" t="str" cm="1">
         <f t="array" ref="B61:W61">B15:W15</f>
         <v>Square</v>
@@ -21830,7 +21832,7 @@
       </c>
     </row>
     <row r="62" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="89"/>
+      <c r="A62" s="94"/>
       <c r="B62" t="str" cm="1">
         <f t="array" ref="B62:W62">B23:W23</f>
         <v>Square</v>
@@ -21904,7 +21906,7 @@
       </c>
     </row>
     <row r="63" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89"/>
+      <c r="A63" s="94"/>
       <c r="B63" t="str" cm="1">
         <f t="array" ref="B63:W63">B34:W34</f>
         <v>Circular</v>
@@ -21978,7 +21980,7 @@
       </c>
     </row>
     <row r="64" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="89"/>
+      <c r="A64" s="94"/>
       <c r="B64" t="str" cm="1">
         <f t="array" ref="B64:W64">B33:W33</f>
         <v>Circular</v>
@@ -22052,7 +22054,7 @@
       </c>
     </row>
     <row r="65" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89"/>
+      <c r="A65" s="94"/>
       <c r="B65" t="str" cm="1">
         <f t="array" ref="B65:W65">B32:W32</f>
         <v>Circular</v>
@@ -22126,7 +22128,7 @@
       </c>
     </row>
     <row r="66" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="89"/>
+      <c r="A66" s="94"/>
       <c r="B66" t="str" cm="1">
         <f t="array" ref="B66:W66">B31:W31</f>
         <v>Circular</v>
@@ -22200,7 +22202,7 @@
       </c>
     </row>
     <row r="67" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="89"/>
+      <c r="A67" s="94"/>
       <c r="B67" t="str" cm="1">
         <f t="array" ref="B67:W67">B30:W30</f>
         <v>Circular</v>
@@ -22274,7 +22276,7 @@
       </c>
     </row>
     <row r="68" spans="1:31" s="12" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="12" t="str" cm="1">
         <f t="array" ref="B68:W68">B$14:W$14</f>
         <v>Circular</v>
@@ -22348,7 +22350,7 @@
       </c>
     </row>
     <row r="69" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89"/>
+      <c r="A69" s="94"/>
       <c r="B69" t="str" cm="1">
         <f t="array" ref="B69:W69">B29:W29</f>
         <v>Circular</v>
@@ -22422,7 +22424,7 @@
       </c>
     </row>
     <row r="70" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="89"/>
+      <c r="A70" s="94"/>
       <c r="B70" t="str" cm="1">
         <f t="array" ref="B70:W70">B28:W28</f>
         <v>Circular</v>
@@ -22496,7 +22498,7 @@
       </c>
     </row>
     <row r="71" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="89"/>
+      <c r="A71" s="94"/>
       <c r="B71" t="str" cm="1">
         <f t="array" ref="B71:W71">B16:W16</f>
         <v>Circular</v>
@@ -22570,7 +22572,7 @@
       </c>
     </row>
     <row r="72" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="89"/>
+      <c r="A72" s="94"/>
       <c r="B72" t="str" cm="1">
         <f t="array" ref="B72:W72">B27:W27</f>
         <v>Circular</v>
@@ -23226,7 +23228,7 @@
       </c>
     </row>
     <row r="84" spans="1:31" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="89" t="str">
+      <c r="A84" s="94" t="str">
         <f>A$11</f>
         <v>2-layer PCB</v>
       </c>
@@ -23291,16 +23293,16 @@
       <c r="U84" s="15">
         <v>0.16632097550259731</v>
       </c>
-      <c r="V84" s="88" t="s">
+      <c r="V84" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="W84" s="88"/>
-      <c r="X84" s="88"/>
-      <c r="Y84" s="88"/>
-      <c r="Z84" s="88"/>
+      <c r="W84" s="95"/>
+      <c r="X84" s="95"/>
+      <c r="Y84" s="95"/>
+      <c r="Z84" s="95"/>
     </row>
     <row r="85" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
+      <c r="A85" s="94"/>
       <c r="B85" t="str" cm="1">
         <f t="array" ref="B85:U85">B17:U17</f>
         <v>Square</v>
@@ -23362,14 +23364,14 @@
       <c r="U85" s="4">
         <v>0.16844754613055699</v>
       </c>
-      <c r="V85" s="88"/>
-      <c r="W85" s="88"/>
-      <c r="X85" s="88"/>
-      <c r="Y85" s="88"/>
-      <c r="Z85" s="88"/>
+      <c r="V85" s="95"/>
+      <c r="W85" s="95"/>
+      <c r="X85" s="95"/>
+      <c r="Y85" s="95"/>
+      <c r="Z85" s="95"/>
     </row>
     <row r="86" spans="1:31" s="12" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="89"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="12" t="str" cm="1">
         <f t="array" ref="B86:U86">B$14:U$14</f>
         <v>Circular</v>
@@ -23431,14 +23433,14 @@
       <c r="U86" s="13">
         <v>0.18123484857838429</v>
       </c>
-      <c r="V86" s="88"/>
-      <c r="W86" s="88"/>
-      <c r="X86" s="88"/>
-      <c r="Y86" s="88"/>
-      <c r="Z86" s="88"/>
+      <c r="V86" s="95"/>
+      <c r="W86" s="95"/>
+      <c r="X86" s="95"/>
+      <c r="Y86" s="95"/>
+      <c r="Z86" s="95"/>
     </row>
     <row r="87" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="89"/>
+      <c r="A87" s="94"/>
       <c r="B87" t="str" cm="1">
         <f t="array" ref="B87:U87">B18:U18</f>
         <v>Circular</v>
@@ -23500,11 +23502,11 @@
       <c r="U87" s="4">
         <v>0.18680325959752558</v>
       </c>
-      <c r="V87" s="88"/>
-      <c r="W87" s="88"/>
-      <c r="X87" s="88"/>
-      <c r="Y87" s="88"/>
-      <c r="Z87" s="88"/>
+      <c r="V87" s="95"/>
+      <c r="W87" s="95"/>
+      <c r="X87" s="95"/>
+      <c r="Y87" s="95"/>
+      <c r="Z87" s="95"/>
     </row>
     <row r="88" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:31" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -23514,7 +23516,7 @@
       </c>
     </row>
     <row r="90" spans="1:31" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="89" t="str">
+      <c r="A90" s="94" t="str">
         <f>A$11</f>
         <v>2-layer PCB</v>
       </c>
@@ -23579,16 +23581,16 @@
       <c r="U90" s="15">
         <v>0.16632097550259731</v>
       </c>
-      <c r="V90" s="88" t="s">
+      <c r="V90" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="W90" s="88"/>
-      <c r="X90" s="88"/>
-      <c r="Y90" s="88"/>
-      <c r="Z90" s="88"/>
+      <c r="W90" s="95"/>
+      <c r="X90" s="95"/>
+      <c r="Y90" s="95"/>
+      <c r="Z90" s="95"/>
     </row>
     <row r="91" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="89"/>
+      <c r="A91" s="94"/>
       <c r="B91" t="str" cm="1">
         <f t="array" ref="B91:U91">B19:U19</f>
         <v>Square</v>
@@ -23650,14 +23652,14 @@
       <c r="U91" s="4">
         <v>0.16730716920288694</v>
       </c>
-      <c r="V91" s="88"/>
-      <c r="W91" s="88"/>
-      <c r="X91" s="88"/>
-      <c r="Y91" s="88"/>
-      <c r="Z91" s="88"/>
+      <c r="V91" s="95"/>
+      <c r="W91" s="95"/>
+      <c r="X91" s="95"/>
+      <c r="Y91" s="95"/>
+      <c r="Z91" s="95"/>
     </row>
     <row r="92" spans="1:31" s="12" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="89"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="12" t="str" cm="1">
         <f t="array" ref="B92:U92">B$14:U$14</f>
         <v>Circular</v>
@@ -23719,14 +23721,14 @@
       <c r="U92" s="13">
         <v>0.18123484857838429</v>
       </c>
-      <c r="V92" s="88"/>
-      <c r="W92" s="88"/>
-      <c r="X92" s="88"/>
-      <c r="Y92" s="88"/>
-      <c r="Z92" s="88"/>
+      <c r="V92" s="95"/>
+      <c r="W92" s="95"/>
+      <c r="X92" s="95"/>
+      <c r="Y92" s="95"/>
+      <c r="Z92" s="95"/>
     </row>
     <row r="93" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="89"/>
+      <c r="A93" s="94"/>
       <c r="B93" t="str" cm="1">
         <f t="array" ref="B93:U93">B20:U20</f>
         <v>Circular</v>
@@ -23788,11 +23790,11 @@
       <c r="U93" s="4">
         <v>0.17984655103794717</v>
       </c>
-      <c r="V93" s="88"/>
-      <c r="W93" s="88"/>
-      <c r="X93" s="88"/>
-      <c r="Y93" s="88"/>
-      <c r="Z93" s="88"/>
+      <c r="V93" s="95"/>
+      <c r="W93" s="95"/>
+      <c r="X93" s="95"/>
+      <c r="Y93" s="95"/>
+      <c r="Z93" s="95"/>
     </row>
     <row r="94" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:31" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -23804,7 +23806,7 @@
       </c>
     </row>
     <row r="96" spans="1:31" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="89" t="str">
+      <c r="A96" s="94" t="str">
         <f>A$11</f>
         <v>2-layer PCB</v>
       </c>
@@ -23869,16 +23871,16 @@
       <c r="U96" s="15">
         <v>0.16632097550259731</v>
       </c>
-      <c r="V96" s="88" t="s">
+      <c r="V96" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="W96" s="88"/>
-      <c r="X96" s="88"/>
-      <c r="Y96" s="88"/>
-      <c r="Z96" s="88"/>
+      <c r="W96" s="95"/>
+      <c r="X96" s="95"/>
+      <c r="Y96" s="95"/>
+      <c r="Z96" s="95"/>
     </row>
     <row r="97" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="89"/>
+      <c r="A97" s="94"/>
       <c r="B97" t="str" cm="1">
         <f t="array" ref="B97:U97">B21:U21</f>
         <v>Square</v>
@@ -23940,14 +23942,14 @@
       <c r="U97" s="4">
         <v>0.15313616190484461</v>
       </c>
-      <c r="V97" s="88"/>
-      <c r="W97" s="88"/>
-      <c r="X97" s="88"/>
-      <c r="Y97" s="88"/>
-      <c r="Z97" s="88"/>
+      <c r="V97" s="95"/>
+      <c r="W97" s="95"/>
+      <c r="X97" s="95"/>
+      <c r="Y97" s="95"/>
+      <c r="Z97" s="95"/>
     </row>
     <row r="98" spans="1:31" s="12" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="89"/>
+      <c r="A98" s="94"/>
       <c r="B98" s="12" t="str" cm="1">
         <f t="array" ref="B98:U98">B$14:U$14</f>
         <v>Circular</v>
@@ -24009,14 +24011,14 @@
       <c r="U98" s="13">
         <v>0.18123484857838429</v>
       </c>
-      <c r="V98" s="88"/>
-      <c r="W98" s="88"/>
-      <c r="X98" s="88"/>
-      <c r="Y98" s="88"/>
-      <c r="Z98" s="88"/>
+      <c r="V98" s="95"/>
+      <c r="W98" s="95"/>
+      <c r="X98" s="95"/>
+      <c r="Y98" s="95"/>
+      <c r="Z98" s="95"/>
     </row>
     <row r="99" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="89"/>
+      <c r="A99" s="94"/>
       <c r="B99" t="str" cm="1">
         <f t="array" ref="B99:U99">B22:U22</f>
         <v>Circular</v>
@@ -24078,11 +24080,11 @@
       <c r="U99" s="4">
         <v>0.17181979278889278</v>
       </c>
-      <c r="V99" s="88"/>
-      <c r="W99" s="88"/>
-      <c r="X99" s="88"/>
-      <c r="Y99" s="88"/>
-      <c r="Z99" s="88"/>
+      <c r="V99" s="95"/>
+      <c r="W99" s="95"/>
+      <c r="X99" s="95"/>
+      <c r="Y99" s="95"/>
+      <c r="Z99" s="95"/>
     </row>
     <row r="100" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:31" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -24592,6 +24594,13 @@
     <row r="110" spans="1:31" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="V84:Z87"/>
+    <mergeCell ref="V90:Z93"/>
+    <mergeCell ref="V96:Z99"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A96:A99"/>
     <mergeCell ref="A77:A81"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="B4:H4"/>
@@ -24602,13 +24611,6 @@
     <mergeCell ref="A35:A46"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="V84:Z87"/>
-    <mergeCell ref="V90:Z93"/>
-    <mergeCell ref="V96:Z99"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A96:A99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24619,9 +24621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0B88E1-C902-45EC-AE8D-E957B2E1B616}">
   <dimension ref="A1:AD48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -24650,16 +24652,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
       <c r="P1" t="s">
         <v>56</v>
       </c>
@@ -24779,15 +24781,15 @@
       <c r="K10" s="96"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
       <c r="I11" t="s">
         <v>23</v>
       </c>
@@ -24807,15 +24809,15 @@
       <c r="AD11" s="29"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
       <c r="I12" t="s">
         <v>22</v>
       </c>
@@ -24836,15 +24838,15 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
       <c r="K13" t="s">
         <v>17</v>
       </c>
@@ -24970,7 +24972,18 @@
       <c r="K15">
         <v>197</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="L15">
+        <f>ROUND($L$13*K15+$M$13, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="M15" s="111">
+        <f t="shared" ref="M15" si="1">ABS(K15-J15)</f>
+        <v>8</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" ref="N15" si="2">M15/K15</f>
+        <v>4.060913705583756E-2</v>
+      </c>
       <c r="P15" s="37">
         <v>0.80721451953940504</v>
       </c>
@@ -24981,7 +24994,10 @@
       <c r="R15">
         <v>0.872</v>
       </c>
-      <c r="S15" s="11"/>
+      <c r="S15" s="11">
+        <f>IF(R15&lt;$R$12, $S$12*R15+$T$12, $S$13*R15+$T$13)/R15</f>
+        <v>3.0733944954128442E-2</v>
+      </c>
       <c r="T15" s="37">
         <f>ABS(R15-Q15)</f>
         <v>6.4785480460594957E-2</v>
@@ -25032,7 +25048,18 @@
       <c r="K16" s="9">
         <v>257</v>
       </c>
-      <c r="N16" s="10"/>
+      <c r="L16" s="9">
+        <f t="shared" ref="L16:L30" si="3">ROUND($L$13*K16+$M$13, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" ref="M16:M30" si="4">ABS(K16-J16)</f>
+        <v>153</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16:N30" si="5">M16/K16</f>
+        <v>0.59533073929961089</v>
+      </c>
       <c r="O16" s="16">
         <f xml:space="preserve"> C5 + C7 + C6 + C8 + C6 + C9  + C6 + C8 + C6 + C7 + C5 - ((C5+C5)/2)</f>
         <v>1.1033999999999999</v>
@@ -25047,13 +25074,16 @@
       <c r="R16" s="9">
         <v>2.9039999999999999</v>
       </c>
-      <c r="S16" s="10"/>
+      <c r="S16" s="10">
+        <f t="shared" ref="S16:S30" si="6">IF(R16&lt;$R$12, $S$12*R16+$T$12, $S$13*R16+$T$13)/R16</f>
+        <v>2.672176308539945E-2</v>
+      </c>
       <c r="T16" s="36">
-        <f t="shared" ref="T16:T30" si="1">ABS(R16-Q16)</f>
+        <f t="shared" ref="T16:T30" si="7">ABS(R16-Q16)</f>
         <v>0.55430816716317555</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" ref="U16:U30" si="2">T16/R16</f>
+        <f t="shared" ref="U16:U30" si="8">T16/R16</f>
         <v>0.19087746803139655</v>
       </c>
       <c r="Y16" s="9">
@@ -25098,7 +25128,18 @@
       <c r="K17">
         <v>456</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="5"/>
+        <v>0.10307017543859649</v>
+      </c>
       <c r="P17" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -25109,18 +25150,21 @@
       <c r="R17">
         <v>0.92200000000000004</v>
       </c>
-      <c r="S17" s="11"/>
+      <c r="S17" s="11">
+        <f t="shared" si="6"/>
+        <v>3.0422993492407811E-2</v>
+      </c>
       <c r="T17" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.11478548046059489</v>
       </c>
       <c r="U17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.12449618271214195</v>
       </c>
       <c r="X17" s="22"/>
       <c r="Y17">
-        <f t="shared" ref="Y17:Y30" si="3">Y$15</f>
+        <f t="shared" ref="Y17:Y30" si="9">Y$15</f>
         <v>4.95</v>
       </c>
       <c r="AD17" s="11"/>
@@ -25161,7 +25205,18 @@
       <c r="K18" s="9">
         <v>441</v>
       </c>
-      <c r="N18" s="10"/>
+      <c r="L18" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="5"/>
+        <v>7.2562358276643993E-2</v>
+      </c>
       <c r="P18" s="36">
         <v>0.80721451953940515</v>
       </c>
@@ -25172,17 +25227,20 @@
       <c r="R18" s="9">
         <v>0.91</v>
       </c>
-      <c r="S18" s="10"/>
+      <c r="S18" s="10">
+        <f t="shared" si="6"/>
+        <v>3.0494505494505497E-2</v>
+      </c>
       <c r="T18" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.10278548046059488</v>
       </c>
       <c r="U18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.11295107742922514</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD18" s="10"/>
@@ -25223,7 +25281,18 @@
       <c r="K19">
         <v>743</v>
       </c>
-      <c r="N19" s="11"/>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="5"/>
+        <v>0.17362045760430686</v>
+      </c>
       <c r="O19" s="17">
         <f xml:space="preserve"> C5 + C7 + C6 - ((C5+C6)/2)</f>
         <v>0.12450000000000001</v>
@@ -25231,25 +25300,28 @@
       <c r="P19" s="37">
         <v>0.80721451953940515</v>
       </c>
-      <c r="Q19" s="36" cm="1">
+      <c r="Q19" s="112" cm="1">
         <f t="array" ref="Q19:Q30">'new constants'!AD93:AD104</f>
         <v>2.7636062427504435</v>
       </c>
       <c r="R19">
         <v>3.2240000000000002</v>
       </c>
-      <c r="S19" s="11"/>
+      <c r="S19" s="11">
+        <f t="shared" si="6"/>
+        <v>2.6550868486352359E-2</v>
+      </c>
       <c r="T19" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.46039375724955667</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.14280203388633891</v>
       </c>
       <c r="X19" s="22"/>
       <c r="Y19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD19" s="11"/>
@@ -25290,7 +25362,18 @@
       <c r="K20" s="9">
         <v>670</v>
       </c>
-      <c r="N20" s="10"/>
+      <c r="L20" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="5"/>
+        <v>8.3582089552238809E-2</v>
+      </c>
       <c r="O20" s="16">
         <f xml:space="preserve"> C5 + C7 + C6 + C8 + C6 - ((C5+C6)/2)</f>
         <v>0.48970000000000002</v>
@@ -25304,17 +25387,20 @@
       <c r="R20" s="9">
         <v>3.101</v>
       </c>
-      <c r="S20" s="10"/>
+      <c r="S20" s="10">
+        <f t="shared" si="6"/>
+        <v>2.6612383102225093E-2</v>
+      </c>
       <c r="T20" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.568510058128187</v>
       </c>
       <c r="U20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18333120223417834</v>
       </c>
       <c r="Y20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD20" s="10"/>
@@ -25355,7 +25441,18 @@
       <c r="K21">
         <v>661</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="5"/>
+        <v>7.1104387291981846E-2</v>
+      </c>
       <c r="O21" s="17">
         <f xml:space="preserve"> C5 + C7 + C6 + C8 + C6 + C9 + C6 - ((C5+C6)/2)</f>
         <v>0.61370000000000002</v>
@@ -25369,18 +25466,21 @@
       <c r="R21">
         <v>3.0579999999999998</v>
       </c>
-      <c r="S21" s="11"/>
+      <c r="S21" s="11">
+        <f t="shared" si="6"/>
+        <v>2.6635055591890128E-2</v>
+      </c>
       <c r="T21" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.57367978892321858</v>
       </c>
       <c r="U21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18759966936665096</v>
       </c>
       <c r="X21" s="22"/>
       <c r="Y21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD21" s="11"/>
@@ -25421,7 +25521,18 @@
       <c r="K22" s="9">
         <v>667</v>
       </c>
-      <c r="N22" s="10"/>
+      <c r="L22" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="5"/>
+        <v>7.9460269865067462E-2</v>
+      </c>
       <c r="O22" s="16">
         <f xml:space="preserve"> C5 + C7 + C6 + C8 + C6 + C9  + C6 + C8 + C6 - ((C5+C6)/2)</f>
         <v>0.97889999999999999</v>
@@ -25435,17 +25546,20 @@
       <c r="R22" s="9">
         <v>2.9470000000000001</v>
       </c>
-      <c r="S22" s="10"/>
+      <c r="S22" s="10">
+        <f t="shared" si="6"/>
+        <v>2.6696640651510013E-2</v>
+      </c>
       <c r="T22" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.56778991661263634</v>
       </c>
       <c r="U22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.19266709080849553</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD22" s="10"/>
@@ -25486,7 +25600,18 @@
       <c r="K23">
         <v>1111</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="5"/>
+        <v>7.9207920792079209E-2</v>
+      </c>
       <c r="O23" s="17" t="s">
         <v>111</v>
       </c>
@@ -25499,18 +25624,21 @@
       <c r="R23">
         <v>7.1379999999999999</v>
       </c>
-      <c r="S23" s="11"/>
+      <c r="S23" s="11">
+        <f t="shared" si="6"/>
+        <v>2.5700476323900254E-2</v>
+      </c>
       <c r="T23" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6712012023319431</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.23412737494143221</v>
       </c>
       <c r="X23" s="22"/>
       <c r="Y23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD23" s="11"/>
@@ -25551,7 +25679,18 @@
       <c r="K24" s="9">
         <v>1527</v>
       </c>
-      <c r="N24" s="10"/>
+      <c r="L24" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="5"/>
+        <v>6.2213490504256709E-2</v>
+      </c>
       <c r="O24" s="16" t="s">
         <v>111</v>
       </c>
@@ -25564,17 +25703,20 @@
       <c r="R24" s="9">
         <v>12.28</v>
       </c>
-      <c r="S24" s="10"/>
+      <c r="S24" s="10">
+        <f t="shared" si="6"/>
+        <v>2.5407166123778503E-2</v>
+      </c>
       <c r="T24" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.0681738027430647</v>
       </c>
       <c r="U24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.24985128686832775</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD24" s="10"/>
@@ -25615,7 +25757,18 @@
       <c r="K25">
         <v>1971</v>
       </c>
-      <c r="N25" s="11"/>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" si="5"/>
+        <v>6.5956367326230336E-2</v>
+      </c>
       <c r="O25" s="17" t="s">
         <v>111</v>
       </c>
@@ -25628,18 +25781,21 @@
       <c r="R25">
         <v>18.956</v>
       </c>
-      <c r="S25" s="11"/>
+      <c r="S25" s="11">
+        <f t="shared" si="6"/>
+        <v>2.5263768727579659E-2</v>
+      </c>
       <c r="T25" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.4794513674360097</v>
       </c>
       <c r="U25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.28906158300464285</v>
       </c>
       <c r="X25" s="22"/>
       <c r="Y25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD25" s="11"/>
@@ -25673,13 +25829,24 @@
         <v>2141.3095526868001</v>
       </c>
       <c r="J26" s="9">
-        <f>(2*J$15)+(2*J$17)</f>
-        <v>1228</v>
+        <f>(2*J$15)+(4*J$17)</f>
+        <v>2046</v>
       </c>
       <c r="K26" s="9">
         <v>2178</v>
       </c>
-      <c r="N26" s="10"/>
+      <c r="L26" s="9">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="5"/>
+        <v>6.0606060606060608E-2</v>
+      </c>
       <c r="O26" s="16" t="s">
         <v>111</v>
       </c>
@@ -25692,17 +25859,20 @@
       <c r="R26" s="9">
         <v>26.43</v>
       </c>
-      <c r="S26" s="10"/>
+      <c r="S26" s="10">
+        <f t="shared" si="6"/>
+        <v>7.1350737797956868E-3</v>
+      </c>
       <c r="T26" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.7090637313674293</v>
       </c>
       <c r="U26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.29167853694163559</v>
       </c>
       <c r="Y26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD26" s="10"/>
@@ -25743,7 +25913,18 @@
       <c r="K27">
         <v>877</v>
       </c>
-      <c r="N27" s="11"/>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="N27" s="11">
+        <f t="shared" si="5"/>
+        <v>6.7274800456100348E-2</v>
+      </c>
       <c r="O27" s="17">
         <f xml:space="preserve"> C6 + C8 + C6 - ((C6+C6)/2)</f>
         <v>0.36519999999999997</v>
@@ -25757,18 +25938,21 @@
       <c r="R27">
         <v>3.137</v>
       </c>
-      <c r="S27" s="11"/>
+      <c r="S27" s="11">
+        <f t="shared" si="6"/>
+        <v>2.65938795027096E-2</v>
+      </c>
       <c r="T27" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.54465382833598408</v>
       </c>
       <c r="U27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.1736225146114071</v>
       </c>
       <c r="X27" s="22"/>
       <c r="Y27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD27" s="11"/>
@@ -25799,7 +25983,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="42">
-        <f t="shared" ref="I28" si="4">(C28/C$26)*I$26</f>
+        <f t="shared" ref="I28" si="10">(C28/C$26)*I$26</f>
         <v>713.76985089560003</v>
       </c>
       <c r="J28" s="9">
@@ -25809,7 +25993,18 @@
       <c r="K28" s="9">
         <v>869</v>
       </c>
-      <c r="N28" s="10"/>
+      <c r="L28" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="5"/>
+        <v>5.8688147295742232E-2</v>
+      </c>
       <c r="O28" s="16">
         <f xml:space="preserve"> C6 + C8 + C6 + C9  + C6 + C8 + C6 - ((C6+C6)/2)</f>
         <v>0.85439999999999994</v>
@@ -25823,17 +26018,20 @@
       <c r="R28" s="9">
         <v>2.9769999999999999</v>
       </c>
-      <c r="S28" s="10"/>
+      <c r="S28" s="10">
+        <f t="shared" si="6"/>
+        <v>2.6679543164259325E-2</v>
+      </c>
       <c r="T28" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.56603659831680275</v>
       </c>
       <c r="U28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.19013657988471708</v>
       </c>
       <c r="Y28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD28" s="10"/>
@@ -25874,7 +26072,18 @@
       <c r="K29">
         <v>1107</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="N29" s="11">
+        <f t="shared" si="5"/>
+        <v>7.5880758807588072E-2</v>
+      </c>
       <c r="O29" s="17">
         <f xml:space="preserve"> ((C5 + C7 + C6 + C8 + C6 + C9  + C6 + C8 + C6)/2) - ((C5+C6)/2)</f>
         <v>0.47689999999999999</v>
@@ -25888,18 +26097,21 @@
       <c r="R29">
         <v>6.8380000000000001</v>
       </c>
-      <c r="S29" s="11"/>
+      <c r="S29" s="11">
+        <f t="shared" si="6"/>
+        <v>2.5731207955542561E-2</v>
+      </c>
       <c r="T29" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.8152391180107248</v>
       </c>
       <c r="U29" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.26546345686029904</v>
       </c>
       <c r="X29" s="22"/>
       <c r="Y29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD29" s="11"/>
@@ -25930,7 +26142,7 @@
         <v>101</v>
       </c>
       <c r="I30" s="42">
-        <f t="shared" ref="I30" si="5">(C30/C$26)*I$26</f>
+        <f t="shared" ref="I30" si="11">(C30/C$26)*I$26</f>
         <v>713.76985089560003</v>
       </c>
       <c r="J30" s="9">
@@ -25940,7 +26152,18 @@
       <c r="K30" s="9">
         <v>872</v>
       </c>
-      <c r="N30" s="10"/>
+      <c r="L30" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="5"/>
+        <v>6.1926605504587159E-2</v>
+      </c>
       <c r="O30" s="16">
         <f xml:space="preserve"> C6 + C9 + C6 - ((C6+C6)/2)</f>
         <v>0.12399999999999999</v>
@@ -25954,17 +26177,20 @@
       <c r="R30" s="9">
         <v>3.2360000000000002</v>
       </c>
-      <c r="S30" s="10"/>
+      <c r="S30" s="10">
+        <f t="shared" si="6"/>
+        <v>2.6545117428924601E-2</v>
+      </c>
       <c r="T30" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.47192462913919186</v>
       </c>
       <c r="U30" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.14583579392434853</v>
       </c>
       <c r="Y30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
       <c r="AD30" s="10"/>
@@ -26011,13 +26237,13 @@
         <v>743</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.17362045760430686</v>
       </c>
       <c r="O35" s="17">
         <v>0.12450000000000001</v>
@@ -26032,7 +26258,7 @@
         <v>3.2240000000000002</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>2.6550868486352359E-2</v>
       </c>
       <c r="T35">
         <v>0.46039375724955667</v>
@@ -26083,13 +26309,13 @@
         <v>670</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>8.3582089552238809E-2</v>
       </c>
       <c r="O36" s="17">
         <v>0.48970000000000002</v>
@@ -26104,7 +26330,7 @@
         <v>3.101</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>2.6612383102225093E-2</v>
       </c>
       <c r="T36">
         <v>0.568510058128187</v>
@@ -26155,13 +26381,13 @@
         <v>661</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>7.1104387291981846E-2</v>
       </c>
       <c r="O37" s="17">
         <v>0.61370000000000002</v>
@@ -26176,7 +26402,7 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>2.6635055591890128E-2</v>
       </c>
       <c r="T37">
         <v>0.57367978892321858</v>
@@ -26227,13 +26453,13 @@
         <v>667</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>7.9460269865067462E-2</v>
       </c>
       <c r="O38" s="17">
         <v>0.97889999999999999</v>
@@ -26248,7 +26474,7 @@
         <v>2.9470000000000001</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>2.6696640651510013E-2</v>
       </c>
       <c r="T38">
         <v>0.56778991661263634</v>
@@ -26299,13 +26525,13 @@
         <v>257</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.59533073929961089</v>
       </c>
       <c r="O39" s="17">
         <v>1.1033999999999999</v>
@@ -26320,7 +26546,7 @@
         <v>2.9039999999999999</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>2.672176308539945E-2</v>
       </c>
       <c r="T39">
         <v>0.55430816716317555</v>
@@ -26371,13 +26597,13 @@
         <v>872</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>6.1926605504587159E-2</v>
       </c>
       <c r="O40" s="17">
         <v>0.12399999999999999</v>
@@ -26392,7 +26618,7 @@
         <v>3.2360000000000002</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>2.6545117428924601E-2</v>
       </c>
       <c r="T40">
         <v>0.47192462913919186</v>
@@ -26443,13 +26669,13 @@
         <v>877</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>6.7274800456100348E-2</v>
       </c>
       <c r="O41" s="17">
         <v>0.36519999999999997</v>
@@ -26464,7 +26690,7 @@
         <v>3.137</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>2.65938795027096E-2</v>
       </c>
       <c r="T41">
         <v>0.54465382833598408</v>
@@ -26515,13 +26741,13 @@
         <v>869</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>5.8688147295742232E-2</v>
       </c>
       <c r="O42" s="17">
         <v>0.85439999999999994</v>
@@ -26536,7 +26762,7 @@
         <v>2.9769999999999999</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>2.6679543164259325E-2</v>
       </c>
       <c r="T42">
         <v>0.56603659831680275</v>
@@ -26594,13 +26820,13 @@
         <v>197</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>4.060913705583756E-2</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -26615,7 +26841,7 @@
         <v>0.872</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>3.0733944954128442E-2</v>
       </c>
       <c r="T45">
         <v>6.4785480460594957E-2</v>
@@ -26666,13 +26892,13 @@
         <v>670</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>8.3582089552238809E-2</v>
       </c>
       <c r="O46">
         <v>0.48970000000000002</v>
@@ -26687,7 +26913,7 @@
         <v>3.101</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>2.6612383102225093E-2</v>
       </c>
       <c r="T46">
         <v>0.568510058128187</v>
@@ -26738,13 +26964,13 @@
         <v>1107</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>7.5880758807588072E-2</v>
       </c>
       <c r="O47">
         <v>0.47689999999999999</v>
@@ -26759,7 +26985,7 @@
         <v>6.8380000000000001</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>2.5731207955542561E-2</v>
       </c>
       <c r="T47">
         <v>1.8152391180107248</v>
@@ -26794,9 +27020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947EA29A-DAC5-450E-A55D-CEEF4BC56DEA}">
   <dimension ref="A2:AN226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE91" sqref="AE91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -26865,14 +27091,14 @@
     </row>
     <row r="6" spans="1:17" s="26" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
       <c r="I6" s="62" t="str">
         <f>I$4</f>
         <v>layer spacing [mm]:</v>
@@ -26892,7 +27118,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="88" t="s">
         <v>116</v>
       </c>
       <c r="B7" t="str" cm="1">
@@ -26947,7 +27173,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
+      <c r="A8" s="88"/>
       <c r="B8" t="str">
         <v>top in2</v>
       </c>
@@ -26995,7 +27221,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="88"/>
       <c r="B9" t="str">
         <v>top in3</v>
       </c>
@@ -27043,7 +27269,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
+      <c r="A10" s="88"/>
       <c r="B10" t="str">
         <v>top in4</v>
       </c>
@@ -27091,7 +27317,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
+      <c r="A11" s="88"/>
       <c r="B11" t="str" cm="1">
         <f t="array" ref="B11:H11">'6L'!A16:G16</f>
         <v>top bot</v>
@@ -27144,14 +27370,14 @@
       </c>
     </row>
     <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
+      <c r="A12" s="88"/>
       <c r="J12" s="37"/>
       <c r="N12" s="37"/>
       <c r="O12" s="30"/>
       <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="88"/>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13:H13">'6L'!A30:G30</f>
         <v>in2 in3</v>
@@ -27204,7 +27430,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
+      <c r="A14" s="88"/>
       <c r="B14" t="str" cm="1">
         <f t="array" ref="B14:H14">'6L'!A27:G27</f>
         <v>in1 in2</v>
@@ -27257,7 +27483,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="88"/>
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15:H15">'6L'!A28:G28</f>
         <v>in1 in4</v>
@@ -27379,7 +27605,7 @@
       <c r="Q18" s="30"/>
     </row>
     <row r="19" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="88" t="s">
         <v>117</v>
       </c>
       <c r="B19" t="s">
@@ -27434,7 +27660,7 @@
       </c>
     </row>
     <row r="20" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
+      <c r="A20" s="88"/>
       <c r="B20" t="s">
         <v>79</v>
       </c>
@@ -27487,7 +27713,7 @@
       </c>
     </row>
     <row r="21" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+      <c r="A21" s="88"/>
       <c r="B21" t="s">
         <v>74</v>
       </c>
@@ -27553,14 +27779,14 @@
     </row>
     <row r="25" spans="1:39" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="J25" s="90" t="s">
+      <c r="C25" s="88"/>
+      <c r="J25" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="90"/>
+      <c r="K25" s="88"/>
       <c r="AF25" t="str" cm="1">
         <f t="array" ref="AF25:AM26">'2L &amp; 4L'!W4:AD5</f>
         <v>A0:</v>
@@ -27650,7 +27876,7 @@
         <f>(SUM($K$27:$K27)+(($K$26+$K28)/2))</f>
         <v>0.23550000000000001</v>
       </c>
-      <c r="AC27" s="110" t="s">
+      <c r="AC27" s="98" t="s">
         <v>158</v>
       </c>
       <c r="AD27">
@@ -27677,7 +27903,7 @@
       <c r="K28">
         <v>0.03</v>
       </c>
-      <c r="AC28" s="110"/>
+      <c r="AC28" s="98"/>
     </row>
     <row r="29" spans="1:39" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
@@ -27710,7 +27936,7 @@
         <f>(SUM($K$29:$K29)+(($K$28+$K30)/2))</f>
         <v>0.23</v>
       </c>
-      <c r="AC29" s="110"/>
+      <c r="AC29" s="98"/>
       <c r="AD29">
         <f t="shared" ref="AD29:AE35" si="2">1 / (($AF$26*(D29^3)) + ($AG$26*(D29^2)) + ($AH$26*D29) + $AI$26)</f>
         <v>0.71173461212724742</v>
@@ -27735,7 +27961,7 @@
       <c r="K30">
         <v>0.03</v>
       </c>
-      <c r="AC30" s="110"/>
+      <c r="AC30" s="98"/>
     </row>
     <row r="31" spans="1:39" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
@@ -27776,7 +28002,7 @@
         <f>(SUM($K$31:$K31)+(($K$30+$K32)/2))</f>
         <v>0.23550000000000001</v>
       </c>
-      <c r="AC31" s="110"/>
+      <c r="AC31" s="98"/>
       <c r="AD31">
         <f t="shared" si="2"/>
         <v>0.67439061396833044</v>
@@ -27789,7 +28015,7 @@
         <f t="shared" ref="AF31" si="4">1 / (($AF$26*(F31^3)) + ($AG$26*(F31^2)) + ($AH$26*F31) + $AI$26)</f>
         <v>0.89127320806827171</v>
       </c>
-      <c r="AK31" s="110" t="s">
+      <c r="AK31" s="98" t="s">
         <v>159</v>
       </c>
       <c r="AL31">
@@ -27813,8 +28039,8 @@
         <f>K26</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC32" s="110"/>
-      <c r="AK32" s="110"/>
+      <c r="AC32" s="98"/>
+      <c r="AK32" s="98"/>
     </row>
     <row r="33" spans="1:40" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
@@ -27854,7 +28080,7 @@
       <c r="M33" t="s">
         <v>181</v>
       </c>
-      <c r="AC33" s="110"/>
+      <c r="AC33" s="98"/>
       <c r="AD33">
         <f t="shared" si="2"/>
         <v>0.59290308331096531</v>
@@ -27871,7 +28097,7 @@
         <f t="shared" ref="AG33" si="7">1 / (($AF$26*(G33^3)) + ($AG$26*(G33^2)) + ($AH$26*G33) + $AI$26)</f>
         <v>0.75813866916196748</v>
       </c>
-      <c r="AK33" s="110"/>
+      <c r="AK33" s="98"/>
       <c r="AL33">
         <f t="shared" ref="AL33:AM33" si="8">1 / (($AF$26*(L29^3)) + ($AG$26*(L29^2)) + ($AH$26*L29) + $AI$26)</f>
         <v>0.71994936461419023</v>
@@ -27890,8 +28116,8 @@
         <f>'6L'!C6</f>
         <v>1.52E-2</v>
       </c>
-      <c r="AC34" s="110"/>
-      <c r="AK34" s="110"/>
+      <c r="AC34" s="98"/>
+      <c r="AK34" s="98"/>
     </row>
     <row r="35" spans="1:40" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
@@ -27922,7 +28148,7 @@
         <f>(SUM($C$35:$C35)+(($C$34+$C36)/2))</f>
         <v>0.1245</v>
       </c>
-      <c r="AC35" s="110"/>
+      <c r="AC35" s="98"/>
       <c r="AD35">
         <f t="shared" si="2"/>
         <v>0.57001880565318996</v>
@@ -27943,7 +28169,7 @@
         <f t="shared" ref="AH35" si="12">1 / (($AF$26*(H35^3)) + ($AG$26*(H35^2)) + ($AH$26*H35) + $AI$26)</f>
         <v>0.89090951246523198</v>
       </c>
-      <c r="AK35" s="110"/>
+      <c r="AK35" s="98"/>
       <c r="AL35">
         <f t="shared" ref="AL35:AM35" si="13">1 / (($AF$26*(L31^3)) + ($AG$26*(L31^2)) + ($AH$26*L31) + $AI$26)</f>
         <v>0.65187546394298146</v>
@@ -27994,13 +28220,13 @@
         <f>D$4</f>
         <v>Layers:</v>
       </c>
-      <c r="E40" s="97" t="s">
+      <c r="E40" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="99"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="110"/>
       <c r="M40" s="63" t="s">
         <v>150</v>
       </c>
@@ -28015,7 +28241,7 @@
       </c>
     </row>
     <row r="41" spans="1:40" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="88" t="s">
         <v>116</v>
       </c>
       <c r="B41" t="s">
@@ -28040,7 +28266,7 @@
       <c r="H41">
         <v>24</v>
       </c>
-      <c r="I41" s="100" t="s">
+      <c r="I41" s="101" t="s">
         <v>128</v>
       </c>
       <c r="J41" s="37">
@@ -28064,7 +28290,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
+      <c r="A42" s="88"/>
       <c r="B42" t="str" cm="1">
         <f t="array" ref="B42:H42">'6L'!A20:G20</f>
         <v>top in2</v>
@@ -28087,7 +28313,7 @@
       <c r="H42">
         <v>24</v>
       </c>
-      <c r="I42" s="100"/>
+      <c r="I42" s="101"/>
       <c r="J42" s="37">
         <f>'6L'!P20</f>
         <v>0.80721451953940515</v>
@@ -28114,7 +28340,7 @@
       </c>
     </row>
     <row r="43" spans="1:40" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
+      <c r="A43" s="88"/>
       <c r="B43" t="str" cm="1">
         <f t="array" ref="B43:H43">'6L'!A29:G29</f>
         <v>top in2 in4</v>
@@ -28137,7 +28363,7 @@
       <c r="H43">
         <v>24</v>
       </c>
-      <c r="I43" s="100"/>
+      <c r="I43" s="101"/>
       <c r="J43" s="37">
         <f>'6L'!P29</f>
         <v>0.80721451953940515</v>
@@ -28164,15 +28390,15 @@
       </c>
     </row>
     <row r="44" spans="1:40" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
+      <c r="A44" s="88"/>
       <c r="D44" s="17"/>
-      <c r="I44" s="100"/>
+      <c r="I44" s="101"/>
       <c r="J44" s="37"/>
       <c r="O44" s="37"/>
       <c r="P44" s="30"/>
     </row>
     <row r="45" spans="1:40" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
+      <c r="A45" s="88"/>
       <c r="B45" t="str" cm="1">
         <f t="array" ref="B45:H45">'6L'!A23:G23</f>
         <v>top in1 in2</v>
@@ -28195,7 +28421,7 @@
       <c r="H45">
         <v>24</v>
       </c>
-      <c r="I45" s="100"/>
+      <c r="I45" s="101"/>
       <c r="J45" s="37">
         <f>'6L'!P23</f>
         <v>0.80721451953940515</v>
@@ -28222,7 +28448,7 @@
       </c>
     </row>
     <row r="46" spans="1:40" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
+      <c r="A46" s="88"/>
       <c r="B46" t="str" cm="1">
         <f t="array" ref="B46:H46">'6L'!A24:G24</f>
         <v>top in1 in2 in3</v>
@@ -28245,7 +28471,7 @@
       <c r="H46">
         <v>24</v>
       </c>
-      <c r="I46" s="100"/>
+      <c r="I46" s="101"/>
       <c r="J46" s="37">
         <f>'6L'!P24</f>
         <v>0.80721451953940515</v>
@@ -28272,7 +28498,7 @@
       </c>
     </row>
     <row r="47" spans="1:40" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
+      <c r="A47" s="88"/>
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47:H47">'6L'!A25:G25</f>
         <v>all except bot</v>
@@ -28295,7 +28521,7 @@
       <c r="H47">
         <v>24</v>
       </c>
-      <c r="I47" s="100"/>
+      <c r="I47" s="101"/>
       <c r="J47" s="37">
         <f>'6L'!P25</f>
         <v>0.80721451953940515</v>
@@ -28322,7 +28548,7 @@
       </c>
     </row>
     <row r="48" spans="1:40" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
+      <c r="A48" s="88"/>
       <c r="B48" t="str" cm="1">
         <f t="array" ref="B48:H48">'6L'!A26:G26</f>
         <v>all 6 layers</v>
@@ -28345,7 +28571,7 @@
       <c r="H48">
         <v>24</v>
       </c>
-      <c r="I48" s="100"/>
+      <c r="I48" s="101"/>
       <c r="J48" s="37">
         <f>'6L'!P26</f>
         <v>0.80721451953940515</v>
@@ -28380,7 +28606,7 @@
       <c r="P49" s="30"/>
     </row>
     <row r="50" spans="1:34" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="88" t="s">
         <v>120</v>
       </c>
       <c r="B50" t="s">
@@ -28424,7 +28650,7 @@
       </c>
     </row>
     <row r="51" spans="1:34" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A51" s="90"/>
+      <c r="A51" s="88"/>
       <c r="B51" t="s">
         <v>74</v>
       </c>
@@ -28476,7 +28702,7 @@
       </c>
     </row>
     <row r="52" spans="1:34" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="88" t="s">
         <v>117</v>
       </c>
       <c r="B52" t="s">
@@ -28501,7 +28727,7 @@
       <c r="H52">
         <v>40</v>
       </c>
-      <c r="I52" s="100" t="s">
+      <c r="I52" s="101" t="s">
         <v>128</v>
       </c>
       <c r="J52" s="37">
@@ -28530,7 +28756,7 @@
       </c>
     </row>
     <row r="53" spans="1:34" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
+      <c r="A53" s="88"/>
       <c r="B53" t="s">
         <v>121</v>
       </c>
@@ -28553,7 +28779,7 @@
       <c r="H53">
         <v>40</v>
       </c>
-      <c r="I53" s="100"/>
+      <c r="I53" s="101"/>
       <c r="J53" s="37">
         <f>'2L &amp; 4L'!P36</f>
         <v>3.05822330800792</v>
@@ -28580,7 +28806,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
+      <c r="A54" s="88"/>
       <c r="B54" t="s">
         <v>136</v>
       </c>
@@ -28603,7 +28829,7 @@
       <c r="H54">
         <v>40</v>
       </c>
-      <c r="I54" s="100"/>
+      <c r="I54" s="101"/>
       <c r="J54" s="37">
         <f>'2L &amp; 4L'!P43</f>
         <v>3.05822330800792</v>
@@ -28631,18 +28857,18 @@
     </row>
     <row r="55" spans="1:34" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="105" t="s">
+      <c r="A56" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="105"/>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
       <c r="V57" s="4">
         <f>COUNTIF(W61:W106,TRUE)/COUNTA(W61:W106)</f>
         <v>0.47826086956521741</v>
@@ -28650,10 +28876,10 @@
       <c r="W57" t="s">
         <v>144</v>
       </c>
-      <c r="AB57" s="110" t="s">
+      <c r="AB57" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="AC57" s="110"/>
+      <c r="AC57" s="98"/>
       <c r="AG57" s="4">
         <f>COUNTIF(AH61:AH106,TRUE)/COUNTA(AH61:AH106)</f>
         <v>0.30434782608695654</v>
@@ -28663,12 +28889,12 @@
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="105"/>
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="97"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
       <c r="R58" s="29" t="s">
         <v>122</v>
       </c>
@@ -28682,8 +28908,8 @@
       <c r="W58" t="s">
         <v>145</v>
       </c>
-      <c r="AB58" s="110"/>
-      <c r="AC58" s="110"/>
+      <c r="AB58" s="98"/>
+      <c r="AC58" s="98"/>
       <c r="AG58" s="11">
         <f>COUNTIF(AH61:AH106,FALSE)/COUNTA(AH61:AH106)</f>
         <v>0.69565217391304346</v>
@@ -28693,14 +28919,14 @@
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="105"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
-      <c r="N59" s="109" t="s">
+      <c r="A59" s="97"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
+      <c r="N59" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="O59" s="109"/>
+      <c r="O59" s="99"/>
       <c r="P59" s="76">
         <f>AVERAGE(P61:P104)</f>
         <v>8.2964004998571424E-3</v>
@@ -28713,16 +28939,16 @@
         <f t="array" ref="S59">((SUM(S61:S104^2)*SUM(T61:T104)) - (SUM(S61:S104)*SUM(S61:S104*T61:T104))) / ((COUNT(S61:S104)*SUM(S61:S104^2))-(SUM(S61:S104)^2))</f>
         <v>1.0225410547530802</v>
       </c>
-      <c r="T59" s="109" t="s">
+      <c r="T59" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="U59" s="109"/>
+      <c r="U59" s="99"/>
       <c r="V59" s="76">
         <f>AVERAGE(V61:V104)</f>
         <v>8.5366276692259296E-3</v>
       </c>
-      <c r="AB59" s="110"/>
-      <c r="AC59" s="110"/>
+      <c r="AB59" s="98"/>
+      <c r="AC59" s="98"/>
       <c r="AE59" s="76">
         <f>AVERAGE(AE61:AE104)</f>
         <v>0.19668036422588148</v>
@@ -28823,7 +29049,7 @@
       </c>
     </row>
     <row r="61" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="92" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="67" t="str" cm="1">
@@ -28934,7 +29160,7 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
+      <c r="A62" s="92"/>
       <c r="C62" t="str">
         <v>Circular</v>
       </c>
@@ -29038,7 +29264,7 @@
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="94"/>
+      <c r="A63" s="92"/>
       <c r="C63" t="str">
         <v>Square</v>
       </c>
@@ -29142,7 +29368,7 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="94"/>
+      <c r="A64" s="92"/>
       <c r="C64" t="str">
         <v>Circular</v>
       </c>
@@ -29246,7 +29472,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="94"/>
+      <c r="A65" s="92"/>
       <c r="C65" t="str">
         <v>Square</v>
       </c>
@@ -29350,7 +29576,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="94"/>
+      <c r="A66" s="92"/>
       <c r="C66" t="str">
         <v>Circular</v>
       </c>
@@ -29454,7 +29680,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="94"/>
+      <c r="A67" s="92"/>
       <c r="C67" t="str">
         <v>Square</v>
       </c>
@@ -29558,7 +29784,7 @@
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
+      <c r="A68" s="92"/>
       <c r="C68" t="str">
         <v>Circular</v>
       </c>
@@ -29662,7 +29888,7 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="94"/>
+      <c r="A69" s="92"/>
       <c r="C69" t="str">
         <v>Square</v>
       </c>
@@ -29766,7 +29992,7 @@
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="94"/>
+      <c r="A70" s="92"/>
       <c r="C70" t="str">
         <v>Circular</v>
       </c>
@@ -29870,7 +30096,7 @@
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="94"/>
+      <c r="A71" s="92"/>
       <c r="C71" t="str">
         <v>Square</v>
       </c>
@@ -29974,7 +30200,7 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="94"/>
+      <c r="A72" s="92"/>
       <c r="C72" t="str">
         <v>Square</v>
       </c>
@@ -30078,7 +30304,7 @@
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
+      <c r="A73" s="92"/>
       <c r="C73" t="str">
         <v>Square</v>
       </c>
@@ -30182,7 +30408,7 @@
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
+      <c r="A74" s="92"/>
       <c r="C74" t="str">
         <v>Square</v>
       </c>
@@ -30286,7 +30512,7 @@
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="94"/>
+      <c r="A75" s="92"/>
       <c r="C75" t="str">
         <v>Circular</v>
       </c>
@@ -30390,7 +30616,7 @@
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="94"/>
+      <c r="A76" s="92"/>
       <c r="C76" t="str">
         <v>Circular</v>
       </c>
@@ -30494,7 +30720,7 @@
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="94"/>
+      <c r="A77" s="92"/>
       <c r="C77" t="str">
         <v>Circular</v>
       </c>
@@ -30598,7 +30824,7 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A78" s="94"/>
+      <c r="A78" s="92"/>
       <c r="C78" t="str">
         <v>Circular</v>
       </c>
@@ -30702,7 +30928,7 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A79" s="94"/>
+      <c r="A79" s="92"/>
       <c r="C79" t="str">
         <v>Circular</v>
       </c>
@@ -30806,7 +31032,7 @@
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A80" s="94"/>
+      <c r="A80" s="92"/>
       <c r="C80" t="str">
         <v>Circular</v>
       </c>
@@ -30910,7 +31136,7 @@
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A81" s="94"/>
+      <c r="A81" s="92"/>
       <c r="C81" t="str">
         <v>Circular</v>
       </c>
@@ -31014,7 +31240,7 @@
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A82" s="94"/>
+      <c r="A82" s="92"/>
       <c r="C82" t="str">
         <v>Circular</v>
       </c>
@@ -31142,7 +31368,7 @@
       <c r="H83" s="67">
         <v>40</v>
       </c>
-      <c r="I83" s="101" t="s">
+      <c r="I83" s="100" t="s">
         <v>128</v>
       </c>
       <c r="J83" s="68" cm="1">
@@ -31228,7 +31454,7 @@
       </c>
     </row>
     <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="95"/>
+      <c r="A84" s="93"/>
       <c r="C84" t="str">
         <v>Circular</v>
       </c>
@@ -31247,7 +31473,7 @@
       <c r="H84">
         <v>40</v>
       </c>
-      <c r="I84" s="100"/>
+      <c r="I84" s="101"/>
       <c r="J84" s="37">
         <v>3.05822330800792</v>
       </c>
@@ -31330,7 +31556,7 @@
       </c>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A85" s="95"/>
+      <c r="A85" s="93"/>
       <c r="C85" s="17" t="str">
         <v>Square</v>
       </c>
@@ -31349,7 +31575,7 @@
       <c r="H85">
         <v>40</v>
       </c>
-      <c r="I85" s="100"/>
+      <c r="I85" s="101"/>
       <c r="J85" s="37">
         <v>3.945289900687476</v>
       </c>
@@ -31432,7 +31658,7 @@
       </c>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A86" s="95"/>
+      <c r="A86" s="93"/>
       <c r="C86" t="str">
         <v>Circular</v>
       </c>
@@ -31451,7 +31677,7 @@
       <c r="H86">
         <v>40</v>
       </c>
-      <c r="I86" s="100"/>
+      <c r="I86" s="101"/>
       <c r="J86" s="37">
         <v>1.855169938334563</v>
       </c>
@@ -31534,7 +31760,7 @@
       </c>
     </row>
     <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="95"/>
+      <c r="A87" s="93"/>
       <c r="B87" t="s">
         <v>74</v>
       </c>
@@ -31556,7 +31782,7 @@
       <c r="H87">
         <v>40</v>
       </c>
-      <c r="I87" s="100"/>
+      <c r="I87" s="101"/>
       <c r="J87" s="37">
         <v>2.688808608987256</v>
       </c>
@@ -31639,7 +31865,7 @@
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A88" s="95"/>
+      <c r="A88" s="93"/>
       <c r="B88" t="s">
         <v>79</v>
       </c>
@@ -31661,7 +31887,7 @@
       <c r="H88">
         <v>40</v>
       </c>
-      <c r="I88" s="100"/>
+      <c r="I88" s="101"/>
       <c r="J88" s="37">
         <v>2.688808608987256</v>
       </c>
@@ -31744,7 +31970,7 @@
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A89" s="95"/>
+      <c r="A89" s="93"/>
       <c r="B89" t="s">
         <v>86</v>
       </c>
@@ -31766,7 +31992,7 @@
       <c r="H89">
         <v>40</v>
       </c>
-      <c r="I89" s="100"/>
+      <c r="I89" s="101"/>
       <c r="J89" s="37">
         <v>2.688808608987256</v>
       </c>
@@ -31849,7 +32075,7 @@
       </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A90" s="95"/>
+      <c r="A90" s="93"/>
       <c r="B90" t="s">
         <v>78</v>
       </c>
@@ -31871,7 +32097,7 @@
       <c r="H90">
         <v>40</v>
       </c>
-      <c r="I90" s="100"/>
+      <c r="I90" s="101"/>
       <c r="J90" s="37">
         <v>2.688808608987256</v>
       </c>
@@ -31977,7 +32203,7 @@
       <c r="H91">
         <v>40</v>
       </c>
-      <c r="I91" s="100"/>
+      <c r="I91" s="101"/>
       <c r="J91" s="37">
         <f>'2L &amp; 4L'!P43</f>
         <v>3.05822330800792</v>
@@ -32064,7 +32290,7 @@
       </c>
     </row>
     <row r="92" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="106" t="s">
+      <c r="A92" s="105" t="s">
         <v>137</v>
       </c>
       <c r="B92" s="67" t="str" cm="1">
@@ -32089,7 +32315,7 @@
       <c r="H92" s="67">
         <v>24</v>
       </c>
-      <c r="I92" s="100"/>
+      <c r="I92" s="101"/>
       <c r="J92" s="68">
         <f>'6L'!P16</f>
         <v>0.80721451953940515</v>
@@ -32176,7 +32402,7 @@
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A93" s="107"/>
+      <c r="A93" s="106"/>
       <c r="B93" t="str" cm="1">
         <f t="array" ref="B93:H104">'6L'!A19:G30</f>
         <v>top in1</v>
@@ -32199,7 +32425,7 @@
       <c r="H93">
         <v>24</v>
       </c>
-      <c r="I93" s="100"/>
+      <c r="I93" s="101"/>
       <c r="J93" s="37" cm="1">
         <f t="array" ref="J93:J104">'6L'!P19:P30</f>
         <v>0.80721451953940515</v>
@@ -32286,7 +32512,7 @@
       </c>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A94" s="107"/>
+      <c r="A94" s="106"/>
       <c r="B94" t="str">
         <v>top in2</v>
       </c>
@@ -32308,7 +32534,7 @@
       <c r="H94">
         <v>24</v>
       </c>
-      <c r="I94" s="100"/>
+      <c r="I94" s="101"/>
       <c r="J94" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -32391,7 +32617,7 @@
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A95" s="107"/>
+      <c r="A95" s="106"/>
       <c r="B95" t="str">
         <v>top in3</v>
       </c>
@@ -32413,7 +32639,7 @@
       <c r="H95">
         <v>24</v>
       </c>
-      <c r="I95" s="100"/>
+      <c r="I95" s="101"/>
       <c r="J95" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -32496,7 +32722,7 @@
       </c>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A96" s="107"/>
+      <c r="A96" s="106"/>
       <c r="B96" t="str">
         <v>top in4</v>
       </c>
@@ -32518,7 +32744,7 @@
       <c r="H96">
         <v>24</v>
       </c>
-      <c r="I96" s="100"/>
+      <c r="I96" s="101"/>
       <c r="J96" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -32601,7 +32827,7 @@
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A97" s="107"/>
+      <c r="A97" s="106"/>
       <c r="B97" t="str">
         <v>top in1 in2</v>
       </c>
@@ -32623,7 +32849,7 @@
       <c r="H97">
         <v>24</v>
       </c>
-      <c r="I97" s="100"/>
+      <c r="I97" s="101"/>
       <c r="J97" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -32706,7 +32932,7 @@
       </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A98" s="107"/>
+      <c r="A98" s="106"/>
       <c r="B98" t="str">
         <v>top in1 in2 in3</v>
       </c>
@@ -32728,7 +32954,7 @@
       <c r="H98">
         <v>24</v>
       </c>
-      <c r="I98" s="100"/>
+      <c r="I98" s="101"/>
       <c r="J98" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -32811,7 +33037,7 @@
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A99" s="107"/>
+      <c r="A99" s="106"/>
       <c r="B99" t="str">
         <v>all except bot</v>
       </c>
@@ -32833,7 +33059,7 @@
       <c r="H99">
         <v>24</v>
       </c>
-      <c r="I99" s="100"/>
+      <c r="I99" s="101"/>
       <c r="J99" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -32916,7 +33142,7 @@
       </c>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A100" s="107"/>
+      <c r="A100" s="106"/>
       <c r="B100" t="str">
         <v>all 6 layers</v>
       </c>
@@ -32938,7 +33164,7 @@
       <c r="H100">
         <v>24</v>
       </c>
-      <c r="I100" s="100"/>
+      <c r="I100" s="101"/>
       <c r="J100" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -33021,7 +33247,7 @@
       </c>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A101" s="107"/>
+      <c r="A101" s="106"/>
       <c r="B101" t="str">
         <v>in1 in2</v>
       </c>
@@ -33043,7 +33269,7 @@
       <c r="H101">
         <v>24</v>
       </c>
-      <c r="I101" s="100"/>
+      <c r="I101" s="101"/>
       <c r="J101" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -33126,7 +33352,7 @@
       </c>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A102" s="107"/>
+      <c r="A102" s="106"/>
       <c r="B102" t="str">
         <v>in1 in4</v>
       </c>
@@ -33148,7 +33374,7 @@
       <c r="H102">
         <v>24</v>
       </c>
-      <c r="I102" s="100"/>
+      <c r="I102" s="101"/>
       <c r="J102" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -33231,7 +33457,7 @@
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A103" s="107"/>
+      <c r="A103" s="106"/>
       <c r="B103" t="str">
         <v>top in2 in4</v>
       </c>
@@ -33253,7 +33479,7 @@
       <c r="H103">
         <v>24</v>
       </c>
-      <c r="I103" s="100"/>
+      <c r="I103" s="101"/>
       <c r="J103" s="37">
         <v>0.80721451953940515</v>
       </c>
@@ -33336,7 +33562,7 @@
       </c>
     </row>
     <row r="104" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
+      <c r="A104" s="107"/>
       <c r="B104" s="71" t="str">
         <v>in2 in3</v>
       </c>
@@ -33463,7 +33689,7 @@
       <c r="H105" s="70">
         <v>12</v>
       </c>
-      <c r="I105" s="101" t="s">
+      <c r="I105" s="100" t="s">
         <v>128</v>
       </c>
       <c r="J105" s="68" cm="1">
@@ -33790,21 +34016,21 @@
       </c>
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A167" s="105" t="s">
+      <c r="A167" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="B167" s="105"/>
-      <c r="C167" s="105"/>
-      <c r="D167" s="105"/>
+      <c r="B167" s="97"/>
+      <c r="C167" s="97"/>
+      <c r="D167" s="97"/>
       <c r="R167" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A168" s="105"/>
-      <c r="B168" s="105"/>
-      <c r="C168" s="105"/>
-      <c r="D168" s="105"/>
+      <c r="A168" s="97"/>
+      <c r="B168" s="97"/>
+      <c r="C168" s="97"/>
+      <c r="D168" s="97"/>
       <c r="E168" t="s">
         <v>196</v>
       </c>
@@ -33815,10 +34041,10 @@
       <c r="W168" t="s">
         <v>144</v>
       </c>
-      <c r="AB168" s="110" t="s">
+      <c r="AB168" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="AC168" s="110"/>
+      <c r="AC168" s="98"/>
       <c r="AG168" s="4">
         <f>COUNTIF(AH172:AH191,TRUE)/COUNTA(AH172:AH191)</f>
         <v>0</v>
@@ -33828,15 +34054,15 @@
       </c>
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A169" s="105"/>
-      <c r="B169" s="105"/>
-      <c r="C169" s="105"/>
-      <c r="D169" s="105"/>
+      <c r="A169" s="97"/>
+      <c r="B169" s="97"/>
+      <c r="C169" s="97"/>
+      <c r="D169" s="97"/>
       <c r="E169" t="s">
         <v>194</v>
       </c>
-      <c r="N169" s="90"/>
-      <c r="O169" s="90"/>
+      <c r="N169" s="88"/>
+      <c r="O169" s="88"/>
       <c r="R169" s="29" t="s">
         <v>122</v>
       </c>
@@ -33850,8 +34076,8 @@
       <c r="W169" t="s">
         <v>145</v>
       </c>
-      <c r="AB169" s="110"/>
-      <c r="AC169" s="110"/>
+      <c r="AB169" s="98"/>
+      <c r="AC169" s="98"/>
       <c r="AG169" s="11">
         <f>COUNTIF(AH172:AH191,FALSE)/COUNTA(AH172:AH191)</f>
         <v>1</v>
@@ -33861,17 +34087,17 @@
       </c>
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A170" s="105"/>
-      <c r="B170" s="105"/>
-      <c r="C170" s="105"/>
-      <c r="D170" s="105"/>
+      <c r="A170" s="97"/>
+      <c r="B170" s="97"/>
+      <c r="C170" s="97"/>
+      <c r="D170" s="97"/>
       <c r="E170" t="s">
         <v>195</v>
       </c>
-      <c r="N170" s="109" t="s">
+      <c r="N170" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="O170" s="109"/>
+      <c r="O170" s="99"/>
       <c r="P170" s="76">
         <f>AVERAGE(P172:P191)</f>
         <v>6.800831460409623E-3</v>
@@ -33884,16 +34110,16 @@
         <f t="array" ref="S170">((SUM(S172:S191^2)*SUM(T172:T191)) - (SUM(S172:S191)*SUM(S172:S191*T172:T191))) / ((COUNT(S172:S191)*SUM(S172:S191^2))-(SUM(S172:S191)^2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T170" s="109" t="s">
+      <c r="T170" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="U170" s="109"/>
+      <c r="U170" s="99"/>
       <c r="V170" s="76" t="e">
         <f>AVERAGE(V172:V191)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB170" s="110"/>
-      <c r="AC170" s="110"/>
+      <c r="AB170" s="98"/>
+      <c r="AC170" s="98"/>
       <c r="AE170" s="76">
         <f>AVERAGE(AE172:AE191)</f>
         <v>0.11437587508554795</v>
@@ -36654,17 +36880,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N169:O169"/>
-    <mergeCell ref="A167:D170"/>
-    <mergeCell ref="AB168:AC170"/>
-    <mergeCell ref="N170:O170"/>
-    <mergeCell ref="T170:U170"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="AC27:AC35"/>
-    <mergeCell ref="AK31:AK35"/>
-    <mergeCell ref="AB57:AC59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I41:I48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="E40:I40"/>
     <mergeCell ref="I83:I104"/>
     <mergeCell ref="I105:I106"/>
     <mergeCell ref="A83:A91"/>
@@ -36672,16 +36897,17 @@
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A61:A82"/>
     <mergeCell ref="A92:A104"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I41:I48"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="AC27:AC35"/>
+    <mergeCell ref="AK31:AK35"/>
+    <mergeCell ref="AB57:AC59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N169:O169"/>
+    <mergeCell ref="A167:D170"/>
+    <mergeCell ref="AB168:AC170"/>
+    <mergeCell ref="N170:O170"/>
+    <mergeCell ref="T170:U170"/>
   </mergeCells>
   <conditionalFormatting sqref="P61:P106 V61:V106 O7:O21 P41:P54">
     <cfRule type="colorScale" priority="18">
